--- a/sample/attendance/上月考勤表.xlsx
+++ b/sample/attendance/上月考勤表.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="13440"/>
+    <workbookView windowWidth="30860" windowHeight="12100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="111">
   <si>
     <t>工号</t>
   </si>
@@ -101,7 +104,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>互动</t>
+    <t>北京</t>
   </si>
   <si>
     <t>2025-8</t>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>科创</t>
   </si>
   <si>
     <t>E</t>
@@ -375,7 +375,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +386,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -860,28 +853,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,118 +886,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,7 +1352,7 @@
   <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1494,7 +1487,6 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="S2"/>
       <c r="T2" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1650,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1726,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1797,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1868,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1939,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2010,10 +2002,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -2081,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -2152,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2223,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2294,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -2365,7 +2357,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -2436,7 +2428,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -2507,7 +2499,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -2578,10 +2570,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -2649,10 +2641,10 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -2720,10 +2712,10 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2791,7 +2783,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -2862,10 +2854,10 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2933,10 +2925,10 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -3004,7 +2996,7 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -3075,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -3146,7 +3138,7 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -3217,10 +3209,10 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -3288,10 +3280,10 @@
         <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -3359,10 +3351,10 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -3430,10 +3422,10 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -3484,7 +3476,7 @@
         <v>28</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
         <v>28</v>
@@ -3501,10 +3493,10 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -3572,10 +3564,10 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -3643,10 +3635,10 @@
         <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -3714,10 +3706,10 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -3785,10 +3777,10 @@
         <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -3856,10 +3848,10 @@
         <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -3927,10 +3919,10 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -3998,10 +3990,10 @@
         <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -4069,10 +4061,10 @@
         <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -4140,10 +4132,10 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -4211,10 +4203,10 @@
         <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -4282,10 +4274,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -4353,10 +4345,10 @@
         <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4424,10 +4416,10 @@
         <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4495,10 +4487,10 @@
         <v>171</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -4566,10 +4558,10 @@
         <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -4637,10 +4629,10 @@
         <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -4708,10 +4700,10 @@
         <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4756,13 +4748,13 @@
         <v>9.5</v>
       </c>
       <c r="R48" t="s">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s">
+        <v>28</v>
+      </c>
+      <c r="T48" t="s">
         <v>80</v>
-      </c>
-      <c r="S48" t="s">
-        <v>28</v>
-      </c>
-      <c r="T48" t="s">
-        <v>81</v>
       </c>
       <c r="U48" t="s">
         <v>28</v>
@@ -4779,10 +4771,10 @@
         <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4827,13 +4819,13 @@
         <v>16</v>
       </c>
       <c r="R49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s">
         <v>28</v>
       </c>
       <c r="T49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s">
         <v>28</v>
@@ -4850,10 +4842,10 @@
         <v>182</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4921,10 +4913,10 @@
         <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>25</v>
@@ -4969,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="R51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s">
         <v>28</v>
@@ -4992,10 +4984,10 @@
         <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>25</v>
@@ -5040,7 +5032,7 @@
         <v>21</v>
       </c>
       <c r="R52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s">
         <v>28</v>
@@ -5063,10 +5055,10 @@
         <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
@@ -5111,7 +5103,7 @@
         <v>19</v>
       </c>
       <c r="R53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S53" t="s">
         <v>28</v>
@@ -5134,10 +5126,10 @@
         <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
@@ -5205,10 +5197,10 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -5276,10 +5268,10 @@
         <v>190</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
@@ -5324,7 +5316,7 @@
         <v>20.5</v>
       </c>
       <c r="R56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S56" t="s">
         <v>28</v>
@@ -5347,10 +5339,10 @@
         <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
@@ -5418,10 +5410,10 @@
         <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
@@ -5489,10 +5481,10 @@
         <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
         <v>25</v>
@@ -5560,10 +5552,10 @@
         <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5614,7 +5606,7 @@
         <v>28</v>
       </c>
       <c r="T60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U60" t="s">
         <v>28</v>
@@ -5631,10 +5623,10 @@
         <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -5679,7 +5671,7 @@
         <v>21</v>
       </c>
       <c r="R61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S61" t="s">
         <v>28</v>
@@ -5702,10 +5694,10 @@
         <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -5750,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="R62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S62" t="s">
         <v>28</v>
@@ -5773,10 +5765,10 @@
         <v>199</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>25</v>
@@ -5844,10 +5836,10 @@
         <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -5894,9 +5886,8 @@
       <c r="R64" t="s">
         <v>26</v>
       </c>
-      <c r="S64"/>
       <c r="T64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U64" t="s">
         <v>28</v>
@@ -5913,10 +5904,10 @@
         <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
@@ -5961,11 +5952,10 @@
         <v>17</v>
       </c>
       <c r="R65" t="s">
-        <v>80</v>
-      </c>
-      <c r="S65"/>
+        <v>79</v>
+      </c>
       <c r="T65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U65" t="s">
         <v>28</v>
@@ -5982,10 +5972,10 @@
         <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>25</v>
@@ -6032,9 +6022,8 @@
       <c r="R66" t="s">
         <v>26</v>
       </c>
-      <c r="S66"/>
       <c r="T66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U66" t="s">
         <v>28</v>
@@ -6051,10 +6040,10 @@
         <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -6099,11 +6088,10 @@
         <v>15</v>
       </c>
       <c r="R67" t="s">
-        <v>80</v>
-      </c>
-      <c r="S67"/>
+        <v>79</v>
+      </c>
       <c r="T67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U67" t="s">
         <v>28</v>
@@ -6120,10 +6108,10 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
@@ -6170,9 +6158,8 @@
       <c r="R68" t="s">
         <v>26</v>
       </c>
-      <c r="S68"/>
       <c r="T68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U68" t="s">
         <v>28</v>
@@ -6189,10 +6176,10 @@
         <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -6239,9 +6226,8 @@
       <c r="R69" t="s">
         <v>26</v>
       </c>
-      <c r="S69"/>
       <c r="T69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U69" t="s">
         <v>28</v>
@@ -6258,10 +6244,10 @@
         <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -6308,9 +6294,8 @@
       <c r="R70" t="s">
         <v>26</v>
       </c>
-      <c r="S70"/>
       <c r="T70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U70" t="s">
         <v>28</v>
@@ -6323,6 +6308,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C70" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
